--- a/IPL/Data/exp/pstats_v01_DC_fyml.xlsx
+++ b/IPL/Data/exp/pstats_v01_DC_fyml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN24"/>
+  <dimension ref="A1:CP24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,267 +631,277 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>tr.G63</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>bat_order_counts</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>most_batted_position</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>l3tr.avg</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>l5tr.avg</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>tr.avg</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>tr</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>tr_pp</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>tr_mid</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>tr_dth</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>tr_pace</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>tr_spin</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>tr%.pp</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>tr%.mid</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>tr%.dth</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>tr%.pace</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>tr%.spin</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G02</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G06</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G10</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G15</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G19</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G27</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G33</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G38</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G43</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G49</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G54</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G57</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>l3wkts.avg</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>l5wkts.avg</t>
-        </is>
-      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
+          <t>tbwkt.G63</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>l3tbwkt.avg</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>l5tbwkt.avg</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt.avg</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
           <t>tbwkt</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>tbwkt_pp</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>tbwkt_mid</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>tbwkt_dth</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>tbwkt_rhb</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>tbwkt_lhb</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>tbwkt%.pp</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>tbwkt%.mid</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>tbwkt%.dth</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>tbwkt%.lhb</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>tbwkt%.rhb</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>tbov</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>tbov_dth</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>tbov_mid</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>tbov_pp</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>tbov_lhb</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>tbov_rhb</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>tbov%.pp</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>tbov%.mid</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>tbov%.dth</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>tbov%.rhb</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>tbov%.lhb</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>tr_tinn_ratio</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>4xtbwkt_tbov_ratio</t>
         </is>
       </c>
     </row>
@@ -948,13 +958,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="M2" t="n">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="N2" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
         <v>14</v>
@@ -975,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" t="n">
         <v>12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>4</v>
@@ -1031,55 +1041,59 @@
       <c r="AM2" t="n">
         <v>54</v>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>1(9), 2(1), 3(1), 4(1)</t>
-        </is>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
+      <c r="AN2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>1(10), 2(1), 3(1), 4(1)</t>
+        </is>
       </c>
       <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AR2" t="n">
         <v>25</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>384</v>
-      </c>
       <c r="AS2" t="n">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="AT2" t="n">
-        <v>132</v>
+        <v>430</v>
       </c>
       <c r="AU2" t="n">
+        <v>274</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>144</v>
+      </c>
+      <c r="AW2" t="n">
         <v>12</v>
       </c>
-      <c r="AV2" t="n">
-        <v>236</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>142</v>
-      </c>
       <c r="AX2" t="n">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="AY2" t="n">
+        <v>145</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>33</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BD2" t="n">
         <v>34</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>61</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>37</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
@@ -1092,56 +1106,56 @@
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
       <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
       <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="n">
-        <v>32</v>
-      </c>
+      <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1196,16 +1210,16 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M3" t="n">
         <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1223,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>7</v>
@@ -1269,55 +1283,59 @@
       <c r="AM3" t="n">
         <v>21</v>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>1(1), 2(3), 3(2), 4(1)</t>
-        </is>
-      </c>
-      <c r="AO3" t="n">
-        <v>2</v>
+      <c r="AN3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1(1), 2(3), 3(2), 4(2)</t>
+        </is>
       </c>
       <c r="AP3" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="AS3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>215</v>
+      </c>
+      <c r="AU3" t="n">
         <v>105</v>
       </c>
-      <c r="AT3" t="n">
-        <v>84</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
       <c r="AV3" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AW3" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AY3" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BA3" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="BB3" t="n">
-        <v>39</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>62</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>38</v>
+      </c>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
@@ -1330,56 +1348,56 @@
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="n">
-        <v>27</v>
-      </c>
+      <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1434,13 +1452,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="M4" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1461,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
         <v>2</v>
@@ -1505,51 +1523,59 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>1(2), 2(4)</t>
-        </is>
-      </c>
-      <c r="AO4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>54</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1(2), 2(5)</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>54</v>
+      </c>
       <c r="AR4" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AS4" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BA4" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>37</v>
+      </c>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
@@ -1562,56 +1588,56 @@
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr"/>
-      <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
       <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="inlineStr"/>
-      <c r="CK4" t="inlineStr"/>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="n">
-        <v>8</v>
-      </c>
+      <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1705,53 +1731,55 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>2(1), 5(1)</t>
         </is>
       </c>
-      <c r="AO5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
+      <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS5" t="n">
         <v>11</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AT5" t="n">
         <v>22</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AU5" t="n">
         <v>10</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AV5" t="n">
         <v>12</v>
       </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
         <v>10</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AY5" t="n">
         <v>12</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AZ5" t="n">
         <v>45</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BA5" t="n">
         <v>55</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
         <v>45</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BD5" t="n">
         <v>55</v>
       </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
@@ -1764,56 +1792,56 @@
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
         <v>0</v>
       </c>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
-      <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
       <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
       </c>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="inlineStr"/>
-      <c r="CK5" t="inlineStr"/>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="n">
-        <v>11</v>
-      </c>
+      <c r="CM5" t="inlineStr"/>
       <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1945,158 +1973,160 @@
       <c r="AM6" t="n">
         <v>3</v>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>2(2), 3(7)</t>
         </is>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>3</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="n">
         <v>11</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT6" t="n">
         <v>128</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AU6" t="n">
         <v>65</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AV6" t="n">
         <v>63</v>
       </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
         <v>77</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AY6" t="n">
         <v>51</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AZ6" t="n">
         <v>51</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BA6" t="n">
         <v>49</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
         <v>60</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BD6" t="n">
         <v>40</v>
       </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>1</v>
-      </c>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
         <v>4</v>
       </c>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM6" t="n">
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO6" t="n">
         <v>3</v>
       </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BS6" t="n">
         <v>1.7</v>
       </c>
-      <c r="BP6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BQ6" t="n">
+      <c r="BT6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU6" t="n">
         <v>12</v>
       </c>
-      <c r="BR6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS6" t="n">
+      <c r="BV6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW6" t="n">
         <v>7</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BX6" t="n">
         <v>3</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BY6" t="n">
         <v>9</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BZ6" t="n">
         <v>3</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CA6" t="n">
         <v>17</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CB6" t="n">
         <v>58</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CC6" t="n">
         <v>25</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CD6" t="n">
         <v>25</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CE6" t="n">
         <v>75</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CF6" t="n">
         <v>21</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CG6" t="n">
         <v>12</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CH6" t="n">
         <v>19</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CI6" t="n">
         <v>10</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CJ6" t="n">
         <v>14</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CK6" t="n">
         <v>20</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CL6" t="n">
         <v>48</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CM6" t="n">
         <v>90</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CN6" t="n">
         <v>57</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CO6" t="n">
         <v>95</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CP6" t="n">
         <v>67</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>14</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>2.3</v>
       </c>
     </row>
     <row r="7">
@@ -2152,16 +2182,16 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M7" t="n">
         <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2179,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
         <v>6</v>
@@ -2225,55 +2255,59 @@
       <c r="AM7" t="n">
         <v>5</v>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>3(1), 4(3), 5(3)</t>
-        </is>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AN7" t="n">
+        <v>82</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>3(2), 4(3), 5(3)</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
         <v>4</v>
       </c>
-      <c r="AP7" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="AS7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>209</v>
+      </c>
+      <c r="AU7" t="n">
         <v>37</v>
       </c>
-      <c r="AT7" t="n">
-        <v>83</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="AW7" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="AY7" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="BB7" t="n">
-        <v>49</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>52</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>48</v>
+      </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
@@ -2286,56 +2320,56 @@
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
         <v>0</v>
       </c>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
       <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>0</v>
       </c>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="n">
-        <v>18</v>
-      </c>
+      <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2457,53 +2491,53 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>4(3), 6(1)</t>
         </is>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>4</v>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW8" t="n">
         <v>9</v>
       </c>
-      <c r="AR8" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AX8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AY8" t="n">
         <v>14</v>
       </c>
-      <c r="AT8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>39</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX8" t="n">
+      <c r="AZ8" t="n">
         <v>26</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BA8" t="n">
         <v>57</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BB8" t="n">
         <v>17</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BC8" t="n">
         <v>74</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BD8" t="n">
         <v>26</v>
       </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
@@ -2516,56 +2550,56 @@
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
       <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
       </c>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="n">
-        <v>13</v>
-      </c>
+      <c r="CM8" t="inlineStr"/>
       <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2683,51 +2717,53 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
         <is>
           <t>4(2)</t>
         </is>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>4</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="n">
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="n">
         <v>3</v>
       </c>
-      <c r="AS9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2</v>
-      </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>33</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
       </c>
       <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD9" t="n">
         <v>33</v>
       </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
@@ -2740,56 +2776,56 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
       </c>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
       <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
       </c>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="n">
-        <v>2</v>
-      </c>
+      <c r="CM9" t="inlineStr"/>
       <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2844,10 +2880,10 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
         <v>109</v>
@@ -2871,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
@@ -2914,64 +2950,64 @@
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
         <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>2(1), 3(1), 4(2), 5(4), 7(1), 8(1)</t>
-        </is>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2(1), 3(1), 4(2), 5(4), 7(1)</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
         <v>5</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR10" t="n">
         <v>9</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT10" t="n">
         <v>160</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AU10" t="n">
         <v>37</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AV10" t="n">
         <v>119</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AW10" t="n">
         <v>4</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AX10" t="n">
         <v>56</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AY10" t="n">
         <v>104</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AZ10" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BA10" t="n">
         <v>74</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC10" t="n">
         <v>35</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BD10" t="n">
         <v>65</v>
       </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
@@ -2984,56 +3020,56 @@
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
       <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
       </c>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="n">
-        <v>16</v>
-      </c>
+      <c r="CM10" t="inlineStr"/>
       <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3153,21 +3189,19 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>5(1), 6(1), 7(1)</t>
         </is>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>5</v>
       </c>
-      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>7</v>
-      </c>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -3176,33 +3210,37 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
         <v>5</v>
       </c>
-      <c r="AW11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
       <c r="AY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
         <v>100</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
         <v>71</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BD11" t="n">
         <v>29</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="n">
-        <v>1</v>
-      </c>
+      <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
+      <c r="BG11" t="n">
+        <v>1</v>
+      </c>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
@@ -3212,17 +3250,11 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>1</v>
-      </c>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" t="n">
         <v>1</v>
@@ -3231,32 +3263,32 @@
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
         <v>100</v>
       </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
         <v>100</v>
       </c>
-      <c r="CB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>1</v>
-      </c>
       <c r="CF11" t="n">
         <v>2</v>
       </c>
@@ -3264,25 +3296,31 @@
         <v>2</v>
       </c>
       <c r="CH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL11" t="n">
         <v>50</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CM11" t="n">
         <v>100</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CN11" t="n">
         <v>100</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CO11" t="n">
         <v>100</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CP11" t="n">
         <v>100</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3389,51 +3427,53 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr">
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>6(2), 8(2)</t>
         </is>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>6</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="n">
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT12" t="n">
         <v>33</v>
       </c>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
         <v>24</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AW12" t="n">
         <v>8</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AX12" t="n">
         <v>28</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AY12" t="n">
         <v>5</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AZ12" t="n">
         <v>3</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="BA12" t="n">
         <v>73</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="BB12" t="n">
         <v>24</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BC12" t="n">
         <v>85</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BD12" t="n">
         <v>15</v>
       </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
@@ -3446,56 +3486,56 @@
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
       </c>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
       <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
       </c>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="n">
-        <v>8</v>
-      </c>
+      <c r="CM12" t="inlineStr"/>
       <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3562,22 +3602,22 @@
         <v>78</v>
       </c>
       <c r="P13" t="n">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Q13" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="R13" t="n">
         <v>70</v>
       </c>
       <c r="S13" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -3633,164 +3673,168 @@
       <c r="AM13" t="n">
         <v>1</v>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5(2), 6(3), 7(6), 8(1)</t>
         </is>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>7</v>
       </c>
-      <c r="AP13" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT13" t="n">
         <v>268</v>
       </c>
-      <c r="AS13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV13" t="n">
         <v>136</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AW13" t="n">
         <v>130</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AX13" t="n">
         <v>151</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AY13" t="n">
         <v>117</v>
       </c>
-      <c r="AX13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="n">
+      <c r="AZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="n">
         <v>51</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="BB13" t="n">
         <v>49</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BC13" t="n">
         <v>56</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BD13" t="n">
         <v>44</v>
       </c>
-      <c r="BC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BS13" t="n">
         <v>0.8</v>
       </c>
-      <c r="BQ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>8</v>
-      </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="BU13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ13" t="n">
         <v>4</v>
       </c>
-      <c r="BW13" t="n">
-        <v>20</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>80</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>40</v>
-      </c>
       <c r="CA13" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="CB13" t="n">
+        <v>82</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>36</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>64</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>44</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CH13" t="n">
         <v>41</v>
       </c>
-      <c r="CC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>38</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>39</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>51</v>
-      </c>
       <c r="CI13" t="n">
+        <v>22</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="CM13" t="n">
         <v>93</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CN13" t="n">
         <v>27</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="CO13" t="n">
         <v>95</v>
       </c>
-      <c r="CL13" t="n">
-        <v>56</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>22</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>1</v>
+      <c r="CP13" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -3846,10 +3890,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>62</v>
@@ -3873,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V14" t="n">
         <v>7</v>
@@ -3914,64 +3958,64 @@
       <c r="AJ14" t="n">
         <v>51</v>
       </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>2</v>
       </c>
       <c r="AM14" t="n">
         <v>16</v>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>6(2), 7(4), 8(3)</t>
-        </is>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>6(2), 7(3), 8(3)</t>
+        </is>
+      </c>
+      <c r="AP14" t="n">
         <v>7</v>
       </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AR14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT14" t="n">
         <v>103</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AU14" t="n">
         <v>4</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AV14" t="n">
         <v>64</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AW14" t="n">
         <v>35</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AX14" t="n">
         <v>65</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AY14" t="n">
         <v>38</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AZ14" t="n">
         <v>4</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="BA14" t="n">
         <v>62</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="BB14" t="n">
         <v>34</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BC14" t="n">
         <v>63</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BD14" t="n">
         <v>37</v>
       </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
@@ -3984,56 +4028,56 @@
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="n">
         <v>0</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
       <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="n">
-        <v>11</v>
-      </c>
+      <c r="CM14" t="inlineStr"/>
       <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4088,10 +4132,10 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>14</v>
@@ -4115,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>3</v>
@@ -4150,62 +4194,62 @@
       <c r="AJ15" t="n">
         <v>23</v>
       </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
         <v>10</v>
       </c>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>6(1), 8(3), 12(1)</t>
-        </is>
-      </c>
-      <c r="AO15" t="n">
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>6(1), 8(3)</t>
+        </is>
+      </c>
+      <c r="AP15" t="n">
         <v>8</v>
       </c>
-      <c r="AP15" t="n">
-        <v>5</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT15" t="n">
         <v>49</v>
       </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
         <v>7</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AW15" t="n">
         <v>42</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AX15" t="n">
         <v>37</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AY15" t="n">
         <v>12</v>
       </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
         <v>14</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BB15" t="n">
         <v>86</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BC15" t="n">
         <v>76</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BD15" t="n">
         <v>24</v>
       </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
@@ -4218,56 +4262,56 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
       </c>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
       <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
       </c>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="n">
-        <v>10</v>
-      </c>
+      <c r="CM15" t="inlineStr"/>
       <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4322,10 +4366,10 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -4334,22 +4378,22 @@
         <v>47</v>
       </c>
       <c r="P16" t="n">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="Q16" t="n">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="T16" t="n">
         <v>36</v>
       </c>
       <c r="U16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
@@ -4384,80 +4428,72 @@
       <c r="AF16" t="n">
         <v>7</v>
       </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>9(6), 10(4), 11(2)</t>
-        </is>
-      </c>
-      <c r="AO16" t="n">
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>9(5), 10(3), 11(1)</t>
+        </is>
+      </c>
+      <c r="AP16" t="n">
         <v>9</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR16" t="n">
         <v>3</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
         <v>31</v>
       </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1</v>
-      </c>
       <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
         <v>30</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AX16" t="n">
         <v>27</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AY16" t="n">
         <v>4</v>
       </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
         <v>3</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="BB16" t="n">
         <v>97</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BC16" t="n">
         <v>87</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BD16" t="n">
         <v>13</v>
       </c>
-      <c r="BC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
       <c r="BE16" t="n">
         <v>1</v>
       </c>
@@ -4465,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK16" t="n">
         <v>1</v>
@@ -4486,85 +4522,91 @@
         <v>1</v>
       </c>
       <c r="BN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
         <v>0.7</v>
       </c>
-      <c r="BP16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BQ16" t="n">
+      <c r="BS16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BU16" t="n">
         <v>10</v>
       </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
         <v>9</v>
       </c>
-      <c r="BT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU16" t="n">
+      <c r="BX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY16" t="n">
         <v>5</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BZ16" t="n">
         <v>5</v>
       </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
         <v>90</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="CC16" t="n">
         <v>10</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CD16" t="n">
         <v>50</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CE16" t="n">
         <v>50</v>
       </c>
-      <c r="CB16" t="n">
-        <v>43</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>43</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>12</v>
-      </c>
       <c r="CF16" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="CG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>46</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>35</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>42</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>28</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>100</v>
+      </c>
+      <c r="CN16" t="n">
         <v>39</v>
       </c>
-      <c r="CH16" t="n">
-        <v>28</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>100</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="CK16" t="n">
+      <c r="CO16" t="n">
         <v>91</v>
       </c>
-      <c r="CL16" t="n">
-        <v>74</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0.9</v>
+      <c r="CP16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -4689,148 +4731,150 @@
         <v>12</v>
       </c>
       <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr">
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
         <is>
           <t>5(1), 6(1), 8(1), 9(2)</t>
         </is>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
       </c>
       <c r="AR17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT17" t="n">
         <v>60</v>
       </c>
-      <c r="AS17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT17" t="n">
+      <c r="AU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV17" t="n">
         <v>42</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AW17" t="n">
         <v>16</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AX17" t="n">
         <v>40</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AY17" t="n">
         <v>20</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AZ17" t="n">
         <v>3</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="BA17" t="n">
         <v>70</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="BB17" t="n">
         <v>27</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BC17" t="n">
         <v>67</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BD17" t="n">
         <v>33</v>
       </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1</v>
+      </c>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="n">
-        <v>1</v>
-      </c>
+      <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="n">
         <v>1</v>
       </c>
-      <c r="BP17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ17" t="n">
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU17" t="n">
         <v>3</v>
       </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
         <v>3</v>
       </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
       <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
         <v>100</v>
       </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
         <v>33</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CE17" t="n">
         <v>67</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>7</v>
       </c>
       <c r="CF17" t="n">
         <v>11</v>
       </c>
       <c r="CG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH17" t="n">
         <v>10</v>
       </c>
-      <c r="CH17" t="n">
+      <c r="CI17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL17" t="n">
         <v>64</v>
       </c>
-      <c r="CI17" t="n">
+      <c r="CM17" t="n">
         <v>91</v>
       </c>
-      <c r="CJ17" t="n">
+      <c r="CN17" t="n">
         <v>27</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CO17" t="n">
         <v>91</v>
       </c>
-      <c r="CL17" t="n">
+      <c r="CP17" t="n">
         <v>100</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>12</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="18">
@@ -4886,10 +4930,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -4898,22 +4942,22 @@
         <v>27</v>
       </c>
       <c r="P18" t="n">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="Q18" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="R18" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="S18" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="T18" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -4946,169 +4990,171 @@
       <c r="AF18" t="n">
         <v>23</v>
       </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
         <v>2</v>
       </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="n">
         <v>3</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>9(2), 10(4), 11(1), 12(1)</t>
-        </is>
-      </c>
-      <c r="AO18" t="n">
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>9(2), 10(4)</t>
+        </is>
+      </c>
+      <c r="AP18" t="n">
         <v>10</v>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
-        <v>2</v>
-      </c>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT18" t="n">
         <v>37</v>
       </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
       <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
         <v>36</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AX18" t="n">
         <v>36</v>
       </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
       <c r="AY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>3</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="BB18" t="n">
         <v>97</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BC18" t="n">
         <v>97</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BD18" t="n">
         <v>3</v>
       </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG18" t="n">
         <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1</v>
+      </c>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="n">
-        <v>1</v>
-      </c>
+      <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY18" t="n">
         <v>7</v>
       </c>
-      <c r="BR18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>71</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>14</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>14</v>
-      </c>
       <c r="BZ18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CA18" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="CB18" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="CC18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="CD18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="CE18" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="CF18" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="CG18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="CH18" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="CI18" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="CJ18" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="CK18" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="CL18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CM18" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.9</v>
+        <v>64</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>92</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -5225,54 +5271,56 @@
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr">
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
         <is>
           <t>10(1)</t>
         </is>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>10</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="n">
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="n">
         <v>4</v>
       </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
         <v>4</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AX19" t="n">
         <v>4</v>
       </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
       <c r="AY19" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
         <v>100</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BC19" t="n">
         <v>100</v>
       </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2</v>
+      </c>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
@@ -5284,50 +5332,44 @@
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU19" t="n">
         <v>2</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
         <v>50</v>
       </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>50</v>
       </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
         <v>100</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>3</v>
       </c>
       <c r="CF19" t="n">
         <v>4</v>
@@ -5336,25 +5378,31 @@
         <v>3</v>
       </c>
       <c r="CH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL19" t="n">
         <v>75</v>
       </c>
-      <c r="CI19" t="n">
+      <c r="CM19" t="n">
         <v>25</v>
       </c>
-      <c r="CJ19" t="n">
+      <c r="CN19" t="n">
         <v>75</v>
       </c>
-      <c r="CK19" t="n">
+      <c r="CO19" t="n">
         <v>75</v>
       </c>
-      <c r="CL19" t="n">
+      <c r="CP19" t="n">
         <v>100</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -5370,12 +5418,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KK Ahmed</t>
+          <t>Mukesh Kumar</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Khaleel Ahmed</t>
+          <t>Mukesh Kumar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5385,12 +5433,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LAFM</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5410,34 +5458,34 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="Q20" t="n">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="R20" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S20" t="n">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="T20" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -5460,51 +5508,41 @@
       <c r="AB20" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>11(5), 12(2)</t>
-        </is>
-      </c>
-      <c r="AO20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>10(1), 11(2)</t>
+        </is>
+      </c>
+      <c r="AP20" t="n">
         <v>11</v>
       </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5513,116 +5551,136 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>100</v>
+      </c>
       <c r="BC20" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="BD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
         <v>0</v>
       </c>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2</v>
+      </c>
       <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v>2</v>
+      </c>
       <c r="BK20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="n">
         <v>1</v>
       </c>
-      <c r="BO20" t="n">
-        <v>1</v>
-      </c>
+      <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="BQ20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BR20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
         <v>5</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BX20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY20" t="n">
         <v>7</v>
       </c>
-      <c r="BV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>25</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>62</v>
-      </c>
       <c r="BZ20" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="CA20" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="CB20" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="CC20" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="CD20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="CE20" t="n">
+        <v>78</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>31</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="CH20" t="n">
         <v>20</v>
       </c>
-      <c r="CF20" t="n">
-        <v>17</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>24</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>77</v>
-      </c>
       <c r="CI20" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="CJ20" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="CK20" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="CL20" t="n">
+        <v>71</v>
+      </c>
+      <c r="CM20" t="n">
         <v>65</v>
       </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
       <c r="CN20" t="n">
-        <v>1.2</v>
+        <v>58</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>94</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -5638,27 +5696,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>I Sharma</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Ishant Sharma</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LHB</t>
+          <t>RHB</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LAFM</t>
+          <t>RAFM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5678,10 +5736,10 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -5690,22 +5748,22 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Q21" t="n">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="R21" t="n">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="S21" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="T21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5728,151 +5786,167 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>11(1), 12(1)</t>
-        </is>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>11(1)</t>
+        </is>
+      </c>
+      <c r="AP21" t="n">
         <v>11</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
         <v>100</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BC21" t="n">
         <v>100</v>
       </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
       <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>2</v>
+      </c>
       <c r="BQ21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BT21" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="BU21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BV21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY21" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CA21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="CB21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="CC21" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="CD21" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="CE21" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="CF21" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="CG21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CH21" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="CI21" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="CJ21" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="CK21" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="CL21" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="CM21" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.6</v>
+        <v>44</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>92</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -5888,27 +5962,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mukesh Kumar</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mukesh Kumar</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RHB</t>
+          <t>LHB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>LAFM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5928,34 +6002,34 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="n">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="R22" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="S22" t="n">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="T22" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -5975,190 +6049,154 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>10(3), 11(2), 12(4)</t>
-        </is>
-      </c>
-      <c r="AO22" t="n">
-        <v>12</v>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>11(1)</t>
+        </is>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>0</v>
       </c>
       <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
         <v>100</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BC22" t="n">
         <v>100</v>
       </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
       <c r="BD22" t="n">
         <v>0</v>
       </c>
-      <c r="BE22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>2</v>
-      </c>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
       </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="n">
-        <v>1</v>
-      </c>
+      <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS22" t="n">
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>100</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>100</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH22" t="n">
         <v>4</v>
       </c>
-      <c r="BT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU22" t="n">
+      <c r="CI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK22" t="n">
         <v>6</v>
       </c>
-      <c r="BV22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>12</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>38</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>25</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>75</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>27</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>16</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>20</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>19</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>25</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>74</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>63</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>59</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>93</v>
-      </c>
       <c r="CL22" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="CM22" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="CN22" t="n">
-        <v>1.2</v>
+        <v>71</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>86</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -6174,12 +6212,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>I Sharma</t>
+          <t>KK Ahmed</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ishant Sharma</t>
+          <t>Khaleel Ahmed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6189,12 +6227,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RAFM</t>
+          <t>LAFM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6214,34 +6252,34 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="Q23" t="n">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="R23" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S23" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -6266,55 +6304,27 @@
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>6(1), 9(2), 11(1), 12(3)</t>
-        </is>
-      </c>
-      <c r="AO23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -6325,118 +6335,114 @@
       <c r="AY23" t="n">
         <v>0</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY23" t="n">
         <v>8</v>
       </c>
-      <c r="BR23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW23" t="n">
+      <c r="BZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>22</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>89</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>27</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>79</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>38</v>
+      </c>
+      <c r="CN23" t="n">
         <v>62</v>
       </c>
-      <c r="BX23" t="n">
-        <v>25</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>12</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>50</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>50</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>22</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>20</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>20</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>91</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>55</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>91</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>59</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>1.5</v>
+      <c r="CO23" t="n">
+        <v>93</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -6523,41 +6529,41 @@
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="n">
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="n">
         <v>16</v>
       </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>15</v>
       </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
         <v>9</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AY24" t="n">
         <v>7</v>
       </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
         <v>94</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="BB24" t="n">
         <v>6</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BC24" t="n">
         <v>56</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BD24" t="n">
         <v>44</v>
       </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
@@ -6570,77 +6576,75 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
         <v>100</v>
       </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
         <v>100</v>
       </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>3</v>
-      </c>
       <c r="CE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24" t="n">
         <v>3</v>
       </c>
       <c r="CG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH24" t="n">
         <v>3</v>
       </c>
-      <c r="CH24" t="n">
+      <c r="CI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL24" t="n">
         <v>33</v>
       </c>
-      <c r="CI24" t="n">
+      <c r="CM24" t="n">
         <v>100</v>
       </c>
-      <c r="CJ24" t="n">
+      <c r="CN24" t="n">
         <v>33</v>
       </c>
-      <c r="CK24" t="n">
+      <c r="CO24" t="n">
         <v>100</v>
       </c>
-      <c r="CL24" t="n">
+      <c r="CP24" t="n">
         <v>100</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>16</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>
